--- a/DATA-ASSUIDUITE-2026.xlsx
+++ b/DATA-ASSUIDUITE-2026.xlsx
@@ -1349,7 +1349,7 @@
     <t>TP-ESA-a</t>
   </si>
   <si>
-    <t>MILOUA</t>
+    <t>MILOUA FARID</t>
   </si>
   <si>
     <t>TP-Gisements énerg. renov. (G1/2)</t>
@@ -1991,7 +1991,7 @@
     <t>TP-ETT fondamentale (SG41/42)</t>
   </si>
   <si>
-    <t>MILOUA.FETHI</t>
+    <t>MILOUA FETHI</t>
   </si>
   <si>
     <t>TP-ETT fondamentale (SG11/12)</t>
@@ -3367,8 +3367,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H543"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3381,7 +3381,7 @@
     <col min="8" max="8" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="15.75" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="15.75" hidden="1" spans="1:8">
+    <row r="2" hidden="1" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" ht="15.75" spans="1:8">
+    <row r="19" ht="15.75" hidden="1" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>86</v>
       </c>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" ht="15.75" spans="1:8">
+    <row r="20" ht="15.75" hidden="1" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>89</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" ht="15.75" spans="1:8">
+    <row r="21" ht="15.75" hidden="1" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>91</v>
       </c>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" ht="15.75" spans="1:8">
+    <row r="22" ht="15.75" hidden="1" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>91</v>
       </c>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" ht="15.75" spans="1:8">
+    <row r="23" ht="15.75" hidden="1" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>91</v>
       </c>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" ht="15.75" spans="1:8">
+    <row r="24" ht="15.75" hidden="1" spans="1:8">
       <c r="A24" s="8" t="s">
         <v>101</v>
       </c>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" ht="15.75" spans="1:8">
+    <row r="25" ht="15.75" hidden="1" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>106</v>
       </c>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" ht="15.75" spans="1:8">
+    <row r="26" ht="15.75" hidden="1" spans="1:8">
       <c r="A26" s="8" t="s">
         <v>110</v>
       </c>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" ht="15.75" spans="1:8">
+    <row r="27" ht="15.75" hidden="1" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>114</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" ht="15.75" spans="1:8">
+    <row r="28" ht="15.75" hidden="1" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>117</v>
       </c>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" ht="15.75" spans="1:8">
+    <row r="29" ht="15.75" hidden="1" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>119</v>
       </c>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" ht="15.75" spans="1:8">
+    <row r="30" ht="15.75" hidden="1" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>123</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" ht="15.75" spans="1:8">
+    <row r="31" ht="15.75" hidden="1" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>125</v>
       </c>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" ht="15.75" spans="1:8">
+    <row r="32" ht="15.75" hidden="1" spans="1:8">
       <c r="A32" s="8" t="s">
         <v>128</v>
       </c>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" ht="15.75" spans="1:8">
+    <row r="33" ht="15.75" hidden="1" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>131</v>
       </c>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" ht="15.75" spans="1:8">
+    <row r="34" ht="15.75" hidden="1" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>134</v>
       </c>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" ht="15.75" spans="1:8">
+    <row r="35" ht="15.75" hidden="1" spans="1:8">
       <c r="A35" s="8" t="s">
         <v>136</v>
       </c>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" ht="15.75" spans="1:8">
+    <row r="36" ht="15.75" hidden="1" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>138</v>
       </c>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" ht="15.75" spans="1:8">
+    <row r="37" ht="15.75" hidden="1" spans="1:8">
       <c r="A37" s="8" t="s">
         <v>141</v>
       </c>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" ht="15.75" spans="1:8">
+    <row r="38" ht="15.75" hidden="1" spans="1:8">
       <c r="A38" s="8" t="s">
         <v>146</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" ht="15.75" spans="1:8">
+    <row r="39" ht="15.75" hidden="1" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" ht="15.75" spans="1:8">
+    <row r="40" ht="15.75" hidden="1" spans="1:8">
       <c r="A40" s="8" t="s">
         <v>150</v>
       </c>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" ht="15.75" spans="1:8">
+    <row r="41" ht="15.75" hidden="1" spans="1:8">
       <c r="A41" s="8" t="s">
         <v>153</v>
       </c>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" ht="15.75" spans="1:8">
+    <row r="42" ht="15.75" hidden="1" spans="1:8">
       <c r="A42" s="8" t="s">
         <v>156</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" ht="15.75" spans="1:8">
+    <row r="43" ht="15.75" hidden="1" spans="1:8">
       <c r="A43" s="8" t="s">
         <v>158</v>
       </c>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" ht="15.75" spans="1:8">
+    <row r="44" ht="15.75" hidden="1" spans="1:8">
       <c r="A44" s="8" t="s">
         <v>161</v>
       </c>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" ht="15.75" spans="1:8">
+    <row r="45" ht="15.75" hidden="1" spans="1:8">
       <c r="A45" s="8" t="s">
         <v>164</v>
       </c>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" ht="15.75" spans="1:8">
+    <row r="46" ht="15.75" hidden="1" spans="1:8">
       <c r="A46" s="8" t="s">
         <v>167</v>
       </c>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" ht="15.75" spans="1:8">
+    <row r="47" ht="15.75" hidden="1" spans="1:8">
       <c r="A47" s="8" t="s">
         <v>168</v>
       </c>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" ht="15.75" spans="1:8">
+    <row r="48" ht="15.75" hidden="1" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>169</v>
       </c>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" ht="15.75" spans="1:8">
+    <row r="49" ht="15.75" hidden="1" spans="1:8">
       <c r="A49" s="8" t="s">
         <v>172</v>
       </c>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" ht="15.75" spans="1:8">
+    <row r="50" ht="15.75" hidden="1" spans="1:8">
       <c r="A50" s="8" t="s">
         <v>175</v>
       </c>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" ht="15.75" spans="1:8">
+    <row r="51" ht="15.75" hidden="1" spans="1:8">
       <c r="A51" s="8" t="s">
         <v>177</v>
       </c>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" ht="15.75" spans="1:8">
+    <row r="52" ht="15.75" hidden="1" spans="1:8">
       <c r="A52" s="8" t="s">
         <v>180</v>
       </c>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" ht="15.75" spans="1:8">
+    <row r="53" ht="15.75" hidden="1" spans="1:8">
       <c r="A53" s="8" t="s">
         <v>182</v>
       </c>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" ht="15.75" spans="1:8">
+    <row r="54" ht="15.75" hidden="1" spans="1:8">
       <c r="A54" s="8" t="s">
         <v>184</v>
       </c>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" ht="15.75" spans="1:8">
+    <row r="55" ht="15.75" hidden="1" spans="1:8">
       <c r="A55" s="8" t="s">
         <v>187</v>
       </c>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" ht="15.75" spans="1:8">
+    <row r="56" ht="15.75" hidden="1" spans="1:8">
       <c r="A56" s="8" t="s">
         <v>190</v>
       </c>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" ht="15.75" spans="1:8">
+    <row r="57" ht="15.75" hidden="1" spans="1:8">
       <c r="A57" s="8" t="s">
         <v>193</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" ht="15.75" spans="1:8">
+    <row r="58" ht="15.75" hidden="1" spans="1:8">
       <c r="A58" s="8" t="s">
         <v>195</v>
       </c>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" ht="15.75" spans="1:8">
+    <row r="59" ht="15.75" hidden="1" spans="1:8">
       <c r="A59" s="8" t="s">
         <v>197</v>
       </c>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" ht="15.75" spans="1:8">
+    <row r="60" ht="15.75" hidden="1" spans="1:8">
       <c r="A60" s="4" t="s">
         <v>200</v>
       </c>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" ht="15.75" spans="1:8">
+    <row r="61" ht="15.75" hidden="1" spans="1:8">
       <c r="A61" s="8" t="s">
         <v>203</v>
       </c>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" ht="15.75" spans="1:8">
+    <row r="106" ht="15.75" hidden="1" spans="1:8">
       <c r="A106" s="8" t="s">
         <v>319</v>
       </c>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" ht="15.75" spans="1:8">
+    <row r="107" ht="15.75" hidden="1" spans="1:8">
       <c r="A107" s="8" t="s">
         <v>114</v>
       </c>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" ht="15.75" spans="1:8">
+    <row r="108" ht="15.75" hidden="1" spans="1:8">
       <c r="A108" s="8" t="s">
         <v>117</v>
       </c>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" ht="15.75" spans="1:8">
+    <row r="109" ht="15.75" hidden="1" spans="1:8">
       <c r="A109" s="8" t="s">
         <v>123</v>
       </c>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" ht="15.75" spans="1:8">
+    <row r="110" ht="15.75" hidden="1" spans="1:8">
       <c r="A110" s="8" t="s">
         <v>150</v>
       </c>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" ht="15.75" spans="1:8">
+    <row r="111" ht="15.75" hidden="1" spans="1:8">
       <c r="A111" s="8" t="s">
         <v>153</v>
       </c>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" ht="15.75" spans="1:8">
+    <row r="112" ht="15.75" hidden="1" spans="1:8">
       <c r="A112" s="8" t="s">
         <v>156</v>
       </c>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" ht="15.75" spans="1:8">
+    <row r="113" ht="15.75" hidden="1" spans="1:8">
       <c r="A113" s="4" t="s">
         <v>323</v>
       </c>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" ht="15.75" spans="1:8">
+    <row r="114" ht="15.75" hidden="1" spans="1:8">
       <c r="A114" s="8" t="s">
         <v>193</v>
       </c>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" ht="15.75" spans="1:8">
+    <row r="115" ht="15.75" hidden="1" spans="1:8">
       <c r="A115" s="8" t="s">
         <v>195</v>
       </c>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" ht="15.75" spans="1:8">
+    <row r="154" ht="15.75" hidden="1" spans="1:8">
       <c r="A154" s="8" t="s">
         <v>383</v>
       </c>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" ht="15.75" spans="1:8">
+    <row r="155" ht="15.75" hidden="1" spans="1:8">
       <c r="A155" s="8" t="s">
         <v>384</v>
       </c>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" ht="15.75" spans="1:8">
+    <row r="156" ht="15.75" hidden="1" spans="1:8">
       <c r="A156" s="4" t="s">
         <v>385</v>
       </c>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" ht="15.75" spans="1:8">
+    <row r="157" ht="15.75" hidden="1" spans="1:8">
       <c r="A157" s="8" t="s">
         <v>387</v>
       </c>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" ht="15.75" spans="1:8">
+    <row r="158" ht="15.75" hidden="1" spans="1:8">
       <c r="A158" s="8" t="s">
         <v>388</v>
       </c>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" ht="15.75" spans="1:8">
+    <row r="159" ht="15.75" hidden="1" spans="1:8">
       <c r="A159" s="8" t="s">
         <v>389</v>
       </c>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" ht="15.75" spans="1:8">
+    <row r="160" ht="15.75" hidden="1" spans="1:8">
       <c r="A160" s="4" t="s">
         <v>391</v>
       </c>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" ht="15.75" spans="1:8">
+    <row r="161" ht="15.75" hidden="1" spans="1:8">
       <c r="A161" s="4" t="s">
         <v>141</v>
       </c>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" ht="15.75" spans="1:8">
+    <row r="162" ht="15.75" hidden="1" spans="1:8">
       <c r="A162" s="4" t="s">
         <v>393</v>
       </c>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" ht="15.75" spans="1:8">
+    <row r="163" ht="15.75" hidden="1" spans="1:8">
       <c r="A163" s="8" t="s">
         <v>394</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" ht="15.75" spans="1:8">
+    <row r="164" ht="15.75" hidden="1" spans="1:8">
       <c r="A164" s="8" t="s">
         <v>395</v>
       </c>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" ht="15.75" spans="1:8">
+    <row r="165" ht="15.75" hidden="1" spans="1:8">
       <c r="A165" s="8" t="s">
         <v>396</v>
       </c>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" ht="15.75" spans="1:8">
+    <row r="166" ht="15.75" hidden="1" spans="1:8">
       <c r="A166" s="8" t="s">
         <v>397</v>
       </c>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" ht="15.75" spans="1:8">
+    <row r="167" ht="15.75" hidden="1" spans="1:8">
       <c r="A167" s="4" t="s">
         <v>399</v>
       </c>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" ht="15.75" spans="1:8">
+    <row r="168" ht="15.75" hidden="1" spans="1:8">
       <c r="A168" s="8" t="s">
         <v>400</v>
       </c>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" ht="15.75" spans="1:8">
+    <row r="169" ht="15.75" hidden="1" spans="1:8">
       <c r="A169" s="8" t="s">
         <v>401</v>
       </c>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" ht="15.75" spans="1:8">
+    <row r="170" ht="15.75" hidden="1" spans="1:8">
       <c r="A170" s="8" t="s">
         <v>404</v>
       </c>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" ht="15.75" spans="1:8">
+    <row r="171" ht="15.75" hidden="1" spans="1:8">
       <c r="A171" s="8" t="s">
         <v>405</v>
       </c>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" ht="15.75" spans="1:8">
+    <row r="172" ht="15.75" hidden="1" spans="1:8">
       <c r="A172" s="4" t="s">
         <v>407</v>
       </c>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" ht="15.75" spans="1:8">
+    <row r="179" ht="15.75" hidden="1" spans="1:8">
       <c r="A179" s="11" t="s">
         <v>136</v>
       </c>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" ht="15.75" hidden="1" spans="1:8">
+    <row r="189" ht="15.75" spans="1:8">
       <c r="A189" s="8" t="s">
         <v>437</v>
       </c>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" ht="15.75" hidden="1" spans="1:8">
+    <row r="190" hidden="1" spans="1:8">
       <c r="A190" s="8" t="s">
         <v>440</v>
       </c>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="H231" s="7"/>
     </row>
-    <row r="232" ht="15.75" spans="1:8">
+    <row r="232" ht="15.75" hidden="1" spans="1:8">
       <c r="A232" s="8" t="s">
         <v>510</v>
       </c>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="H234" s="7"/>
     </row>
-    <row r="235" ht="15.75" spans="1:8">
+    <row r="235" ht="15.75" hidden="1" spans="1:8">
       <c r="A235" s="8" t="s">
         <v>513</v>
       </c>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="H235" s="7"/>
     </row>
-    <row r="236" ht="15.75" spans="1:8">
+    <row r="236" ht="15.75" hidden="1" spans="1:8">
       <c r="A236" s="8" t="s">
         <v>387</v>
       </c>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="H236" s="7"/>
     </row>
-    <row r="237" ht="15.75" spans="1:8">
+    <row r="237" ht="15.75" hidden="1" spans="1:8">
       <c r="A237" s="8" t="s">
         <v>388</v>
       </c>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="H237" s="7"/>
     </row>
-    <row r="238" ht="15.75" spans="1:8">
+    <row r="238" ht="15.75" hidden="1" spans="1:8">
       <c r="A238" s="8" t="s">
         <v>389</v>
       </c>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" ht="15.75" spans="1:8">
+    <row r="239" ht="15.75" hidden="1" spans="1:8">
       <c r="A239" s="4" t="s">
         <v>515</v>
       </c>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="H239" s="7"/>
     </row>
-    <row r="240" ht="15.75" spans="1:8">
+    <row r="240" ht="15.75" hidden="1" spans="1:8">
       <c r="A240" s="8" t="s">
         <v>517</v>
       </c>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" ht="15.75" spans="1:8">
+    <row r="241" ht="15.75" hidden="1" spans="1:8">
       <c r="A241" s="4" t="s">
         <v>519</v>
       </c>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="H241" s="7"/>
     </row>
-    <row r="242" ht="15.75" spans="1:8">
+    <row r="242" ht="15.75" hidden="1" spans="1:8">
       <c r="A242" s="8" t="s">
         <v>521</v>
       </c>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="H242" s="7"/>
     </row>
-    <row r="243" ht="15.75" spans="1:8">
+    <row r="243" ht="15.75" hidden="1" spans="1:8">
       <c r="A243" s="4" t="s">
         <v>523</v>
       </c>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="H243" s="7"/>
     </row>
-    <row r="244" ht="15.75" spans="1:8">
+    <row r="244" ht="15.75" hidden="1" spans="1:8">
       <c r="A244" s="4" t="s">
         <v>525</v>
       </c>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" ht="15.75" spans="1:8">
+    <row r="245" ht="15.75" hidden="1" spans="1:8">
       <c r="A245" s="4" t="s">
         <v>526</v>
       </c>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="H245" s="7"/>
     </row>
-    <row r="246" ht="15.75" spans="1:8">
+    <row r="246" ht="15.75" hidden="1" spans="1:8">
       <c r="A246" s="8" t="s">
         <v>394</v>
       </c>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" ht="15.75" spans="1:8">
+    <row r="247" ht="15.75" hidden="1" spans="1:8">
       <c r="A247" s="8" t="s">
         <v>395</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="H247" s="7"/>
     </row>
-    <row r="248" ht="15.75" spans="1:8">
+    <row r="248" ht="15.75" hidden="1" spans="1:8">
       <c r="A248" s="8" t="s">
         <v>396</v>
       </c>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" ht="15.75" spans="1:8">
+    <row r="249" ht="15.75" hidden="1" spans="1:8">
       <c r="A249" s="8" t="s">
         <v>397</v>
       </c>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" ht="15.75" spans="1:8">
+    <row r="250" ht="15.75" hidden="1" spans="1:8">
       <c r="A250" s="4" t="s">
         <v>529</v>
       </c>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" ht="15.75" spans="1:8">
+    <row r="251" ht="15.75" hidden="1" spans="1:8">
       <c r="A251" s="8" t="s">
         <v>531</v>
       </c>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="H251" s="7"/>
     </row>
-    <row r="252" ht="15.75" spans="1:8">
+    <row r="252" ht="15.75" hidden="1" spans="1:8">
       <c r="A252" s="8" t="s">
         <v>533</v>
       </c>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" ht="15.75" spans="1:8">
+    <row r="253" ht="15.75" hidden="1" spans="1:8">
       <c r="A253" s="4" t="s">
         <v>168</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="H253" s="7"/>
     </row>
-    <row r="254" ht="15.75" spans="1:8">
+    <row r="254" ht="15.75" hidden="1" spans="1:8">
       <c r="A254" s="4" t="s">
         <v>535</v>
       </c>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" ht="15.75" spans="1:8">
+    <row r="255" ht="15.75" hidden="1" spans="1:8">
       <c r="A255" s="4" t="s">
         <v>536</v>
       </c>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" ht="15.75" spans="1:8">
+    <row r="256" ht="15.75" hidden="1" spans="1:8">
       <c r="A256" s="4" t="s">
         <v>538</v>
       </c>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" ht="15.75" spans="1:8">
+    <row r="257" ht="15.75" hidden="1" spans="1:8">
       <c r="A257" s="8" t="s">
         <v>539</v>
       </c>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" ht="15.75" spans="1:8">
+    <row r="258" ht="15.75" hidden="1" spans="1:8">
       <c r="A258" s="4" t="s">
         <v>541</v>
       </c>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" ht="15.75" spans="1:8">
+    <row r="259" ht="15.75" hidden="1" spans="1:8">
       <c r="A259" s="4" t="s">
         <v>543</v>
       </c>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" ht="15.75" spans="1:8">
+    <row r="260" ht="15.75" hidden="1" spans="1:8">
       <c r="A260" s="8" t="s">
         <v>400</v>
       </c>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" ht="15.75" spans="1:8">
+    <row r="261" ht="15.75" hidden="1" spans="1:8">
       <c r="A261" s="8" t="s">
         <v>401</v>
       </c>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" ht="15.75" spans="1:8">
+    <row r="262" ht="15.75" hidden="1" spans="1:8">
       <c r="A262" s="8" t="s">
         <v>404</v>
       </c>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" ht="15.75" spans="1:8">
+    <row r="263" ht="15.75" hidden="1" spans="1:8">
       <c r="A263" s="8" t="s">
         <v>405</v>
       </c>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" ht="15.75" spans="1:8">
+    <row r="264" ht="15.75" hidden="1" spans="1:8">
       <c r="A264" s="4" t="s">
         <v>547</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" ht="15.75" spans="1:8">
+    <row r="265" ht="15.75" hidden="1" spans="1:8">
       <c r="A265" s="8" t="s">
         <v>548</v>
       </c>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" ht="15.75" spans="1:8">
+    <row r="266" ht="15.75" hidden="1" spans="1:8">
       <c r="A266" s="4" t="s">
         <v>203</v>
       </c>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="H278" s="7"/>
     </row>
-    <row r="279" ht="15.75" hidden="1" spans="1:8">
+    <row r="279" ht="15.75" spans="1:8">
       <c r="A279" s="8" t="s">
         <v>437</v>
       </c>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="H279" s="7"/>
     </row>
-    <row r="280" ht="15.75" hidden="1" spans="1:8">
+    <row r="280" hidden="1" spans="1:8">
       <c r="A280" s="8" t="s">
         <v>440</v>
       </c>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" ht="15.75" spans="1:8">
+    <row r="312" ht="15.75" hidden="1" spans="1:8">
       <c r="A312" s="11" t="s">
         <v>563</v>
       </c>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="H353" s="7"/>
     </row>
-    <row r="354" ht="15.75" spans="1:8">
+    <row r="354" ht="15.75" hidden="1" spans="1:8">
       <c r="A354" s="11" t="s">
         <v>618</v>
       </c>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="H362" s="7"/>
     </row>
-    <row r="363" ht="15.75" spans="1:8">
+    <row r="363" ht="15.75" hidden="1" spans="1:8">
       <c r="A363" s="8" t="s">
         <v>630</v>
       </c>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="H364" s="14"/>
     </row>
-    <row r="365" ht="15.75" spans="1:8">
+    <row r="365" ht="15.75" hidden="1" spans="1:8">
       <c r="A365" s="4" t="s">
         <v>632</v>
       </c>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="H365" s="7"/>
     </row>
-    <row r="366" ht="15.75" spans="1:8">
+    <row r="366" ht="15.75" hidden="1" spans="1:8">
       <c r="A366" s="8" t="s">
         <v>633</v>
       </c>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="H366" s="7"/>
     </row>
-    <row r="367" ht="15.75" spans="1:8">
+    <row r="367" ht="15.75" hidden="1" spans="1:8">
       <c r="A367" s="4" t="s">
         <v>635</v>
       </c>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="H367" s="7"/>
     </row>
-    <row r="368" ht="15.75" spans="1:8">
+    <row r="368" ht="15.75" hidden="1" spans="1:8">
       <c r="A368" s="8" t="s">
         <v>636</v>
       </c>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="H368" s="7"/>
     </row>
-    <row r="369" ht="15.75" spans="1:8">
+    <row r="369" ht="15.75" hidden="1" spans="1:8">
       <c r="A369" s="8" t="s">
         <v>172</v>
       </c>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="H369" s="7"/>
     </row>
-    <row r="370" ht="15.75" spans="1:8">
+    <row r="370" ht="15.75" hidden="1" spans="1:8">
       <c r="A370" s="4" t="s">
         <v>639</v>
       </c>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="H370" s="7"/>
     </row>
-    <row r="371" ht="15.75" spans="1:8">
+    <row r="371" ht="15.75" hidden="1" spans="1:8">
       <c r="A371" s="4" t="s">
         <v>641</v>
       </c>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="H371" s="7"/>
     </row>
-    <row r="372" ht="15.75" spans="1:8">
+    <row r="372" ht="15.75" hidden="1" spans="1:8">
       <c r="A372" s="8" t="s">
         <v>538</v>
       </c>
@@ -12309,7 +12309,7 @@
       </c>
       <c r="H372" s="7"/>
     </row>
-    <row r="373" ht="15.75" spans="1:8">
+    <row r="373" ht="15.75" hidden="1" spans="1:8">
       <c r="A373" s="4" t="s">
         <v>643</v>
       </c>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="H373" s="7"/>
     </row>
-    <row r="374" ht="15.75" spans="1:8">
+    <row r="374" ht="15.75" hidden="1" spans="1:8">
       <c r="A374" s="4" t="s">
         <v>645</v>
       </c>
@@ -12357,7 +12357,7 @@
       </c>
       <c r="H374" s="7"/>
     </row>
-    <row r="375" ht="15.75" spans="1:8">
+    <row r="375" ht="15.75" hidden="1" spans="1:8">
       <c r="A375" s="8" t="s">
         <v>187</v>
       </c>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="H375" s="7"/>
     </row>
-    <row r="376" ht="15.75" spans="1:8">
+    <row r="376" ht="15.75" hidden="1" spans="1:8">
       <c r="A376" s="8" t="s">
         <v>649</v>
       </c>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="H376" s="7"/>
     </row>
-    <row r="377" ht="15.75" spans="1:8">
+    <row r="377" ht="15.75" hidden="1" spans="1:8">
       <c r="A377" s="8" t="s">
         <v>407</v>
       </c>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="H378" s="7"/>
     </row>
-    <row r="379" ht="15.75" hidden="1" spans="1:8">
+    <row r="379" ht="15.75" spans="1:8">
       <c r="A379" s="4" t="s">
         <v>652</v>
       </c>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="H379" s="7"/>
     </row>
-    <row r="380" ht="15.75" hidden="1" spans="1:8">
+    <row r="380" hidden="1" spans="1:8">
       <c r="A380" s="4" t="s">
         <v>654</v>
       </c>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="H399" s="7"/>
     </row>
-    <row r="400" ht="15.75" spans="1:8">
+    <row r="400" ht="15.75" hidden="1" spans="1:8">
       <c r="A400" s="4" t="s">
         <v>645</v>
       </c>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="H420" s="7"/>
     </row>
-    <row r="421" ht="15.75" hidden="1" spans="1:8">
+    <row r="421" ht="15.75" spans="1:8">
       <c r="A421" s="8" t="s">
         <v>695</v>
       </c>
@@ -13485,7 +13485,7 @@
       </c>
       <c r="H421" s="7"/>
     </row>
-    <row r="422" ht="15.75" hidden="1" spans="1:8">
+    <row r="422" hidden="1" spans="1:8">
       <c r="A422" s="8" t="s">
         <v>697</v>
       </c>
@@ -13605,7 +13605,7 @@
       </c>
       <c r="H426" s="7"/>
     </row>
-    <row r="427" ht="15.75" spans="1:8">
+    <row r="427" ht="15.75" hidden="1" spans="1:8">
       <c r="A427" s="8" t="s">
         <v>91</v>
       </c>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="H427" s="7"/>
     </row>
-    <row r="428" ht="15.75" spans="1:8">
+    <row r="428" ht="15.75" hidden="1" spans="1:8">
       <c r="A428" s="8" t="s">
         <v>704</v>
       </c>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="H428" s="7"/>
     </row>
-    <row r="429" ht="15.75" spans="1:8">
+    <row r="429" ht="15.75" hidden="1" spans="1:8">
       <c r="A429" s="8" t="s">
         <v>110</v>
       </c>
@@ -13677,7 +13677,7 @@
       </c>
       <c r="H429" s="7"/>
     </row>
-    <row r="430" ht="15.75" spans="1:8">
+    <row r="430" ht="15.75" hidden="1" spans="1:8">
       <c r="A430" s="4" t="s">
         <v>119</v>
       </c>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="H430" s="7"/>
     </row>
-    <row r="431" ht="15.75" spans="1:8">
+    <row r="431" ht="15.75" hidden="1" spans="1:8">
       <c r="A431" s="8" t="s">
         <v>136</v>
       </c>
@@ -13725,7 +13725,7 @@
       </c>
       <c r="H431" s="7"/>
     </row>
-    <row r="432" ht="15.75" spans="1:8">
+    <row r="432" ht="15.75" hidden="1" spans="1:8">
       <c r="A432" s="4" t="s">
         <v>706</v>
       </c>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="H432" s="7"/>
     </row>
-    <row r="433" ht="15.75" spans="1:8">
+    <row r="433" ht="15.75" hidden="1" spans="1:8">
       <c r="A433" s="8" t="s">
         <v>708</v>
       </c>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="H433" s="7"/>
     </row>
-    <row r="434" ht="15.75" spans="1:8">
+    <row r="434" ht="15.75" hidden="1" spans="1:8">
       <c r="A434" s="4" t="s">
         <v>708</v>
       </c>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="H434" s="7"/>
     </row>
-    <row r="435" ht="15.75" spans="1:8">
+    <row r="435" ht="15.75" hidden="1" spans="1:8">
       <c r="A435" s="4" t="s">
         <v>146</v>
       </c>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="H435" s="7"/>
     </row>
-    <row r="436" ht="15.75" spans="1:8">
+    <row r="436" ht="15.75" hidden="1" spans="1:8">
       <c r="A436" s="4" t="s">
         <v>526</v>
       </c>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="H436" s="7"/>
     </row>
-    <row r="437" ht="15.75" spans="1:8">
+    <row r="437" ht="15.75" hidden="1" spans="1:8">
       <c r="A437" s="4" t="s">
         <v>147</v>
       </c>
@@ -13869,7 +13869,7 @@
       </c>
       <c r="H437" s="7"/>
     </row>
-    <row r="438" ht="15.75" spans="1:8">
+    <row r="438" ht="15.75" hidden="1" spans="1:8">
       <c r="A438" s="8" t="s">
         <v>633</v>
       </c>
@@ -13893,7 +13893,7 @@
       </c>
       <c r="H438" s="7"/>
     </row>
-    <row r="439" ht="15.75" spans="1:8">
+    <row r="439" ht="15.75" hidden="1" spans="1:8">
       <c r="A439" s="4" t="s">
         <v>635</v>
       </c>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="H439" s="7"/>
     </row>
-    <row r="440" ht="15.75" spans="1:8">
+    <row r="440" ht="15.75" hidden="1" spans="1:8">
       <c r="A440" s="4" t="s">
         <v>167</v>
       </c>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="H440" s="7"/>
     </row>
-    <row r="441" ht="15.75" spans="1:8">
+    <row r="441" ht="15.75" hidden="1" spans="1:8">
       <c r="A441" s="4" t="s">
         <v>164</v>
       </c>
@@ -13965,7 +13965,7 @@
       </c>
       <c r="H441" s="7"/>
     </row>
-    <row r="442" ht="15.75" spans="1:8">
+    <row r="442" ht="15.75" hidden="1" spans="1:8">
       <c r="A442" s="4" t="s">
         <v>169</v>
       </c>
@@ -14013,7 +14013,7 @@
       </c>
       <c r="H443" s="7"/>
     </row>
-    <row r="444" ht="15.75" spans="1:8">
+    <row r="444" ht="15.75" hidden="1" spans="1:8">
       <c r="A444" s="8" t="s">
         <v>172</v>
       </c>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="H444" s="7"/>
     </row>
-    <row r="445" ht="15.75" spans="1:8">
+    <row r="445" ht="15.75" hidden="1" spans="1:8">
       <c r="A445" s="8" t="s">
         <v>399</v>
       </c>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="H445" s="7"/>
     </row>
-    <row r="446" ht="15.75" spans="1:8">
+    <row r="446" ht="15.75" hidden="1" spans="1:8">
       <c r="A446" s="4" t="s">
         <v>175</v>
       </c>
@@ -14085,7 +14085,7 @@
       </c>
       <c r="H446" s="7"/>
     </row>
-    <row r="447" ht="15.75" spans="1:8">
+    <row r="447" ht="15.75" hidden="1" spans="1:8">
       <c r="A447" s="4" t="s">
         <v>713</v>
       </c>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="H447" s="7"/>
     </row>
-    <row r="448" ht="15.75" spans="1:8">
+    <row r="448" ht="15.75" hidden="1" spans="1:8">
       <c r="A448" s="8" t="s">
         <v>714</v>
       </c>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="H448" s="7"/>
     </row>
-    <row r="449" ht="15.75" spans="1:8">
+    <row r="449" ht="15.75" hidden="1" spans="1:8">
       <c r="A449" s="4" t="s">
         <v>716</v>
       </c>
@@ -14157,7 +14157,7 @@
       </c>
       <c r="H449" s="7"/>
     </row>
-    <row r="450" ht="15.75" spans="1:8">
+    <row r="450" ht="15.75" hidden="1" spans="1:8">
       <c r="A450" s="4" t="s">
         <v>718</v>
       </c>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="H450" s="7"/>
     </row>
-    <row r="451" ht="15.75" spans="1:8">
+    <row r="451" ht="15.75" hidden="1" spans="1:8">
       <c r="A451" s="8" t="s">
         <v>718</v>
       </c>
@@ -14205,7 +14205,7 @@
       </c>
       <c r="H451" s="7"/>
     </row>
-    <row r="452" ht="15.75" spans="1:8">
+    <row r="452" ht="15.75" hidden="1" spans="1:8">
       <c r="A452" s="8" t="s">
         <v>718</v>
       </c>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="H454" s="7"/>
     </row>
-    <row r="455" ht="15.75" spans="1:8">
+    <row r="455" ht="15.75" hidden="1" spans="1:8">
       <c r="A455" s="8" t="s">
         <v>187</v>
       </c>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="H456" s="7"/>
     </row>
-    <row r="457" ht="15.75" spans="1:8">
+    <row r="457" ht="15.75" hidden="1" spans="1:8">
       <c r="A457" s="4" t="s">
         <v>720</v>
       </c>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="H457" s="7"/>
     </row>
-    <row r="458" ht="15.75" spans="1:8">
+    <row r="458" ht="15.75" hidden="1" spans="1:8">
       <c r="A458" s="8" t="s">
         <v>190</v>
       </c>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="H458" s="7"/>
     </row>
-    <row r="459" ht="15.75" spans="1:8">
+    <row r="459" ht="15.75" hidden="1" spans="1:8">
       <c r="A459" s="8" t="s">
         <v>649</v>
       </c>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="H459" s="7"/>
     </row>
-    <row r="460" ht="15.75" spans="1:8">
+    <row r="460" ht="15.75" hidden="1" spans="1:8">
       <c r="A460" s="4" t="s">
         <v>722</v>
       </c>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="H460" s="7"/>
     </row>
-    <row r="461" ht="15.75" spans="1:8">
+    <row r="461" ht="15.75" hidden="1" spans="1:8">
       <c r="A461" s="4" t="s">
         <v>548</v>
       </c>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="H471" s="7"/>
     </row>
-    <row r="472" ht="15.75" hidden="1" spans="1:8">
+    <row r="472" ht="15.75" spans="1:8">
       <c r="A472" s="4" t="s">
         <v>652</v>
       </c>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="H472" s="7"/>
     </row>
-    <row r="473" ht="15.75" hidden="1" spans="1:8">
+    <row r="473" hidden="1" spans="1:8">
       <c r="A473" s="4" t="s">
         <v>654</v>
       </c>
@@ -16415,107 +16415,10 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H543" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="0">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Td-Compatibilité électromagnétique"/>
-        <filter val="Td-Modélis. &amp; Optimis. réseaux"/>
-        <filter val="Td-ETT fondamentale (G3)"/>
-        <filter val="Td-Logique combinatoire (G1)"/>
-        <filter val="Td-Thermodynamique (G5)"/>
-        <filter val="Td-Analyse 2"/>
-        <filter val="Td-Electronique de puissance"/>
-        <filter val="Td-Modélis. &amp; optimisation réseaux"/>
-        <filter val="Td-ETT fondamentale (G2)"/>
-        <filter val="Td-Thermodynamique (G4)"/>
-        <filter val="Td-Méthodes numériques (G4)"/>
-        <filter val="Td-Théorie du signal (G1)"/>
-        <filter val="Td-Diagnostic défaillances syst."/>
-        <filter val="Td-Algèbre 2"/>
-        <filter val="Td-Electronique fondamentale 2"/>
-        <filter val="Td-Analyse 2 (G1)"/>
-        <filter val="Td-Algèbre 2 (G1)"/>
-        <filter val="Td-Anglais (Langue étra. 2)"/>
-        <filter val="Td-Thermodynamique (G3)"/>
-        <filter val="Td-Méthodes numériques (G3)"/>
-        <filter val="Td-Modélisation des machines élec."/>
-        <filter val="Td-Commande syst. énergies renov."/>
-        <filter val="Td-Matériaux et Haute-Tension"/>
-        <filter val="Td-ETT fondamentale (G4)"/>
-        <filter val="Td-Thermodynamique (G2)"/>
-        <filter val="Td-Méthodes numériques (G2)"/>
-        <filter val="Td-Réseaux électriques 1"/>
-        <filter val="Td-Qualité de l'énergie électrique"/>
-        <filter val="Td-Analyse 2 (G3)"/>
-        <filter val="Td-Algèbre 1 (G3)"/>
-        <filter val="Td-Thermodynamique (G1)"/>
-        <filter val="Td-Méthodes numériques (G1)"/>
-        <filter val="Td-Elec. &amp; Magnétisme (G7)"/>
-        <filter val="Td-Théorie du signal (G4)"/>
-        <filter val="Td-Qualité de l’énergie électrique"/>
-        <filter val="Td-Analyse 2 (G2)"/>
-        <filter val="Td-Algèbre 2 (G2)"/>
-        <filter val="Td-Logique combinatoire (G4)"/>
-        <filter val="Td-Elec. &amp; Magnétisme (G6)"/>
-        <filter val="Td-Logique programmée et Automatismes"/>
-        <filter val="Td-Syst. conversion énergie éolienne"/>
-        <filter val="Td-Analyse 2 (G5)"/>
-        <filter val="Td-Algèbre 1 (G5)"/>
-        <filter val="Td-ETT fondamentale (G1)"/>
-        <filter val="Td-Logique combinatoire (G3)"/>
-        <filter val="Td-Théorie du signal (G2)"/>
-        <filter val="Td-Automatismes Industriels"/>
-        <filter val="Td-Techniques de la commande électrique"/>
-        <filter val="Td-Analyse 2 (G4)"/>
-        <filter val="Td-Algèbre 1 (G4)"/>
-        <filter val="Td-Logique combinatoire (G2)"/>
-        <filter val="Td-Elec. &amp; Magnétisme (G8)"/>
-        <filter val="Td-Théorie du signal (G3)"/>
-        <filter val="Td-Asserv. échan. &amp; Régulation num."/>
-        <filter val="TD-Système Asservis 2"/>
-        <filter val="Td-Commande des Machines"/>
-        <filter val="Td-Conception d'Éclairage"/>
-        <filter val="Td-Algèbre 2 (G7)"/>
-        <filter val="Td-Elec. &amp; Magnétisme (G3)"/>
-        <filter val="Td-Machines électriques"/>
-        <filter val="Td-Electrostatique et ses applications"/>
-        <filter val="Td-Analyse 2 (G6)"/>
-        <filter val="Td-Algèbre 1 (G6)"/>
-        <filter val="Td-Elec. &amp; Magnétisme (G2)"/>
-        <filter val="Td-Dessin Technique (G12)"/>
-        <filter val="Td-Dessin Technique (G22)"/>
-        <filter val="Td-Electrotechnique fondamentale 2"/>
-        <filter val="Td-Régulation Industrielle"/>
-        <filter val="Td-Elec. &amp; Magnétisme (G5)"/>
-        <filter val="Td-Techniques de la THT 1"/>
-        <filter val="Td-Réseaux électriques"/>
-        <filter val="Td-Fiabilité des systèmes électriques"/>
-        <filter val="Td-Matériaux en électrotechnique"/>
-        <filter val="Td-Thermodynamique"/>
-        <filter val="Td-Syst. conversion énergie PV"/>
-        <filter val="Td-Analyse 2 (G8)"/>
-        <filter val="Td-Algèbre 2 (G8)"/>
-        <filter val="Td-Elec. &amp; Magnétisme (G4)"/>
-        <filter val="Td-Optimisation des réseaux élec."/>
-        <filter val="Td-Commande systèmes é-énergét."/>
-        <filter val="Td-Champ magnétique dans les machines"/>
-        <filter val="Td-Energie solaire thermique"/>
-        <filter val="Td-Elec. &amp; Magnétisme"/>
-        <filter val="Td-Technique de haute tension"/>
-        <filter val="Td-Planification réseaux élec."/>
-        <filter val="Td-TD-Construction des machines élec."/>
-        <filter val="Td-Thermodynamique (G8)"/>
-        <filter val="Td-Commande des Machines élec."/>
-        <filter val="Td-Conduite des réseaux électriques"/>
-        <filter val="Td-Thermodynamique (G7)"/>
-        <filter val="Td-Elec. &amp; Magnétisme (G1)"/>
-        <filter val="Td-Dessin Technique (G11)"/>
-        <filter val="Td-Dessin Technique (G21)"/>
-        <filter val="Td-Théorie du signal"/>
-        <filter val="Td-Syst. multi-sources énergies renov."/>
-        <filter val="Td-Protection des réseaux électriques"/>
-        <filter val="Td-Thermodynamique (G6)"/>
-        <filter val="Td-Modélisation &amp; identification syst."/>
-        <filter val="Td-Gisements énergétiques renov."/>
+        <filter val="MILOUA"/>
+        <filter val="MILOUA.FETHI"/>
       </filters>
     </filterColumn>
     <sortState ref="A1:H543">
